--- a/biology/Botanique/Société_d'horticulture_et_d'arboriculture_des_Bouches-du-Rhône/Société_d'horticulture_et_d'arboriculture_des_Bouches-du-Rhône.xlsx
+++ b/biology/Botanique/Société_d'horticulture_et_d'arboriculture_des_Bouches-du-Rhône/Société_d'horticulture_et_d'arboriculture_des_Bouches-du-Rhône.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27horticulture_et_d%27arboriculture_des_Bouches-du-Rh%C3%B4ne</t>
+          <t>Société_d'horticulture_et_d'arboriculture_des_Bouches-du-Rhône</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société d'horticulture et d'arboriculture des Bouches-du-Rhône est une société savante, créée le 23 novembre 1846 sous l'intitulé Société d'agriculture de Marseille. Paul-Emmanuel Abeille de Perrin en est le premier président. En 1881, elle devient la Société d'horticulture et de botanique des Bouches-du-Rhône après avoir fusionné avec la Société de botanique de Provence[1]. Elle prend son nom actuel en 1966[2].
-La société édite une revue, intitulée Les jardins en Provence, qui succède en 1966 à la Revue horticole des Bouches-du-Rhône[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société d'horticulture et d'arboriculture des Bouches-du-Rhône est une société savante, créée le 23 novembre 1846 sous l'intitulé Société d'agriculture de Marseille. Paul-Emmanuel Abeille de Perrin en est le premier président. En 1881, elle devient la Société d'horticulture et de botanique des Bouches-du-Rhône après avoir fusionné avec la Société de botanique de Provence. Elle prend son nom actuel en 1966.
+La société édite une revue, intitulée Les jardins en Provence, qui succède en 1966 à la Revue horticole des Bouches-du-Rhône.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27horticulture_et_d%27arboriculture_des_Bouches-du-Rh%C3%B4ne</t>
+          <t>Société_d'horticulture_et_d'arboriculture_des_Bouches-du-Rhône</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Membres connus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Louis Castagne, diplomate et botaniste
 Paul-Emmanuel Abeille de Perrin, membre fondateur
